--- a/biology/Zoologie/Chiasmocleis/Chiasmocleis.xlsx
+++ b/biology/Zoologie/Chiasmocleis/Chiasmocleis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis  est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis  est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 36 espèces de ce genre se rencontrent au Panama et en Amérique du Sud, dans le Nord et l'Est des Andes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 36 espèces de ce genre se rencontrent au Panama et en Amérique du Sud, dans le Nord et l'Est des Andes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (2 avril 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (2 avril 2020) :
 Chiasmocleis alagoana Cruz, Caramaschi &amp; Freire, 1999
 Chiasmocleis albopunctata (Boettger, 1885)
 Chiasmocleis altomontana Forlani, Tonini, Cruz, Zaher &amp; de Sá, 2017
@@ -608,9 +624,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nectodactylus[3] a été synonymisé avec Chiasmocleis par Parker en 1927[4]. Le genre Syncope[5] a été synonymisé avec Chiasmocleis par Peloso, Sturaro, Forlani, Gaucher, Motta &amp; Wheeler en 2014[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nectodactylus a été synonymisé avec Chiasmocleis par Parker en 1927. Le genre Syncope a été synonymisé avec Chiasmocleis par Peloso, Sturaro, Forlani, Gaucher, Motta &amp; Wheeler en 2014.
 </t>
         </is>
       </c>
@@ -639,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Méhely, 1904 : Investigations on Paraguayan batrachians. Annales Historico-Naturales Musei Nationalis Hungarici, vol. 2, p. 207-232 (texte intégral).</t>
         </is>
